--- a/automated_colocalization_quantification/template_per_cell_data.xlsx
+++ b/automated_colocalization_quantification/template_per_cell_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30610" yWindow="-3720" windowWidth="46300" windowHeight="25540"/>
+    <workbookView xWindow="30610" yWindow="-3720" windowWidth="46300" windowHeight="25540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,12 +85,6 @@
     <t>DNA outside cells (cumulative signal intensity)</t>
   </si>
   <si>
-    <t>DNA inside cells per area (signal intensity per pixel)</t>
-  </si>
-  <si>
-    <t>DNA outside cells per area (signal intensity per pixel)</t>
-  </si>
-  <si>
     <t>Area inside cells (pixels)</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>Green puncta count per area</t>
+  </si>
+  <si>
+    <t>Intracellular DNA signal per area (signal intensity per pixel)</t>
+  </si>
+  <si>
+    <t>Extracellular DNA signal per area (signal intensity per pixel)</t>
   </si>
 </sst>
 </file>
@@ -3256,11 +3256,12 @@
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>DNA signal intensity inside and outside cells over time normalized by area</a:t>
+              <a:t>Intracellular vs extracellular DNA signal intensity over time normalized by area</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3329,7 +3330,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DNA inside cells per area (signal intensity per pixel)</c:v>
+                  <c:v>Intracellular DNA signal per area (signal intensity per pixel)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3392,7 +3393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DNA outside cells per area (signal intensity per pixel)</c:v>
+                  <c:v>Extracellular DNA signal per area (signal intensity per pixel)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3494,6 +3495,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3595,6 +3597,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10239,7 +10242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S19" workbookViewId="0">
       <selection activeCell="AZ33" sqref="AZ33"/>
     </sheetView>
   </sheetViews>
@@ -10293,40 +10296,40 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>26</v>
+      <c r="Q1" s="2" t="s">
+        <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>27</v>
+      <c r="R1" s="2" t="s">
+        <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10366,16 +10369,16 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -10384,17 +10387,17 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1"/>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10407,7 +10410,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -10431,16 +10436,16 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
